--- a/Jogos_do_Dia/2023-07-17_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-17_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="146">
   <si>
     <t>League</t>
   </si>
@@ -127,12 +127,12 @@
     <t>Finland Veikkausliiga</t>
   </si>
   <si>
+    <t>Bulgaria First League</t>
+  </si>
+  <si>
     <t>Romania Liga I</t>
   </si>
   <si>
-    <t>Bulgaria First League</t>
-  </si>
-  <si>
     <t>Sweden Allsvenskan</t>
   </si>
   <si>
@@ -157,12 +157,12 @@
     <t>Peru Primera División</t>
   </si>
   <si>
+    <t>Argentina Primera División</t>
+  </si>
+  <si>
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
-    <t>Argentina Primera División</t>
-  </si>
-  <si>
     <t>Uruguay Primera División</t>
   </si>
   <si>
@@ -175,6 +175,15 @@
     <t>Brazil Serie D</t>
   </si>
   <si>
+    <t>Chile Segunda División</t>
+  </si>
+  <si>
+    <t>Chile Primera B</t>
+  </si>
+  <si>
+    <t>Colombia Categoria Primera A</t>
+  </si>
+  <si>
     <t>08:35:00</t>
   </si>
   <si>
@@ -226,33 +235,42 @@
     <t>21:00:00</t>
   </si>
   <si>
+    <t>21:10:00</t>
+  </si>
+  <si>
+    <t>21:45:00</t>
+  </si>
+  <si>
+    <t>22:00:00</t>
+  </si>
+  <si>
+    <t>Shanghai Shenhua</t>
+  </si>
+  <si>
+    <t>Qingdao Jonoon</t>
+  </si>
+  <si>
     <t>Shijiazhuang Ever Bright</t>
   </si>
   <si>
-    <t>Shanghai Shenhua</t>
-  </si>
-  <si>
-    <t>Qingdao Jonoon</t>
-  </si>
-  <si>
     <t>Inter Turku</t>
   </si>
   <si>
+    <t>Lokomotiv Sofia 1929</t>
+  </si>
+  <si>
     <t>Voluntari</t>
   </si>
   <si>
-    <t>Lokomotiv Sofia 1929</t>
+    <t>Djurgården</t>
+  </si>
+  <si>
+    <t>Örebro</t>
   </si>
   <si>
     <t>Varberg</t>
   </si>
   <si>
-    <t>Djurgården</t>
-  </si>
-  <si>
-    <t>Örebro</t>
-  </si>
-  <si>
     <t>Etar</t>
   </si>
   <si>
@@ -280,15 +298,15 @@
     <t>Deportivo Municipal</t>
   </si>
   <si>
+    <t>Tigre</t>
+  </si>
+  <si>
+    <t>Arsenal de Sarandí</t>
+  </si>
+  <si>
     <t>Guaireña</t>
   </si>
   <si>
-    <t>Arsenal de Sarandí</t>
-  </si>
-  <si>
-    <t>Tigre</t>
-  </si>
-  <si>
     <t>The Strongest</t>
   </si>
   <si>
@@ -307,45 +325,57 @@
     <t>Goiás</t>
   </si>
   <si>
+    <t>Nacional Asunción</t>
+  </si>
+  <si>
     <t>Democrata GV</t>
   </si>
   <si>
-    <t>Nacional Asunción</t>
-  </si>
-  <si>
     <t>Newell's Old Boys</t>
   </si>
   <si>
+    <t>Deportes Limache</t>
+  </si>
+  <si>
     <t>Oriente Petrolero</t>
   </si>
   <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>La Serena</t>
+  </si>
+  <si>
+    <t>Deportivo Pereira</t>
+  </si>
+  <si>
+    <t>Meizhou Hakka</t>
+  </si>
+  <si>
+    <t>Henan Jianye</t>
+  </si>
+  <si>
     <t>Chengdu Better City FC</t>
   </si>
   <si>
-    <t>Meizhou Hakka</t>
-  </si>
-  <si>
-    <t>Henan Jianye</t>
-  </si>
-  <si>
     <t>KuPS</t>
   </si>
   <si>
+    <t>Botev Vratsa</t>
+  </si>
+  <si>
     <t>Botoşani</t>
   </si>
   <si>
-    <t>Botev Vratsa</t>
+    <t>Malmö FF</t>
+  </si>
+  <si>
+    <t>Trelleborg</t>
   </si>
   <si>
     <t>AIK</t>
   </si>
   <si>
-    <t>Malmö FF</t>
-  </si>
-  <si>
-    <t>Trelleborg</t>
-  </si>
-  <si>
     <t>Slavia Sofia</t>
   </si>
   <si>
@@ -373,15 +403,15 @@
     <t>Melgar</t>
   </si>
   <si>
+    <t>Barracas Central</t>
+  </si>
+  <si>
+    <t>Instituto</t>
+  </si>
+  <si>
     <t>Sportivo Luqueño</t>
   </si>
   <si>
-    <t>Instituto</t>
-  </si>
-  <si>
-    <t>Barracas Central</t>
-  </si>
-  <si>
     <t>Independiente Petrolero</t>
   </si>
   <si>
@@ -400,16 +430,28 @@
     <t>Atlético Mineiro</t>
   </si>
   <si>
+    <t>Tacuary</t>
+  </si>
+  <si>
     <t>Resende</t>
   </si>
   <si>
-    <t>Tacuary</t>
-  </si>
-  <si>
     <t>Atlético Tucumán</t>
   </si>
   <si>
+    <t>Deportes Rengo</t>
+  </si>
+  <si>
     <t>Universitario de Vinto</t>
+  </si>
+  <si>
+    <t>Deportivo Maipú</t>
+  </si>
+  <si>
+    <t>Deportes Santa Cruz</t>
+  </si>
+  <si>
+    <t>Deportivo Cali</t>
   </si>
 </sst>
 </file>
@@ -771,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI32"/>
+  <dimension ref="A1:AI36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -892,103 +934,103 @@
         <v>45124</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D2">
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G2">
-        <v>4.65</v>
+        <v>1.62</v>
       </c>
       <c r="H2">
-        <v>3.73</v>
+        <v>3.7</v>
       </c>
       <c r="I2">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L2">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M2">
         <v>3.3</v>
       </c>
       <c r="N2">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O2">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="P2">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="Q2">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R2">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S2">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T2">
-        <v>2.1</v>
+        <v>1.11</v>
       </c>
       <c r="U2">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="V2">
-        <v>1.19</v>
+        <v>2.2</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>1.88</v>
       </c>
       <c r="X2">
-        <v>1.71</v>
+        <v>0.75</v>
       </c>
       <c r="Y2">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="Z2">
-        <v>1.29</v>
+        <v>1.12</v>
       </c>
       <c r="AA2">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="AB2">
-        <v>3.45</v>
+        <v>1.34</v>
       </c>
       <c r="AC2">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="AD2">
-        <v>1.39</v>
+        <v>3.65</v>
       </c>
       <c r="AE2">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AF2">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AG2">
-        <v>1.89</v>
+        <v>2.01</v>
       </c>
       <c r="AH2">
-        <v>2.32</v>
+        <v>2.49</v>
       </c>
       <c r="AI2">
-        <v>3.18</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -999,103 +1041,103 @@
         <v>45124</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G3">
-        <v>1.63</v>
+        <v>2.55</v>
       </c>
       <c r="H3">
-        <v>3.98</v>
+        <v>3.19</v>
       </c>
       <c r="I3">
-        <v>5.87</v>
+        <v>2.87</v>
       </c>
       <c r="J3">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K3">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="L3">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M3">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N3">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="O3">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="P3">
         <v>1.41</v>
       </c>
       <c r="Q3">
-        <v>2.7</v>
+        <v>2.86</v>
       </c>
       <c r="R3">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>1.11</v>
+        <v>1.42</v>
       </c>
       <c r="U3">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="V3">
-        <v>2.2</v>
+        <v>1.52</v>
       </c>
       <c r="W3">
-        <v>1.88</v>
+        <v>1.38</v>
       </c>
       <c r="X3">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="Y3">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="Z3">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="AA3">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AB3">
-        <v>1.34</v>
+        <v>1.71</v>
       </c>
       <c r="AC3">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD3">
+        <v>2.4</v>
+      </c>
+      <c r="AE3">
+        <v>1.31</v>
+      </c>
+      <c r="AF3">
+        <v>1.68</v>
+      </c>
+      <c r="AG3">
+        <v>2.06</v>
+      </c>
+      <c r="AH3">
+        <v>2.65</v>
+      </c>
+      <c r="AI3">
         <v>3.65</v>
-      </c>
-      <c r="AE3">
-        <v>1.3</v>
-      </c>
-      <c r="AF3">
-        <v>1.62</v>
-      </c>
-      <c r="AG3">
-        <v>2.01</v>
-      </c>
-      <c r="AH3">
-        <v>2.49</v>
-      </c>
-      <c r="AI3">
-        <v>3.42</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1106,103 +1148,103 @@
         <v>45124</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D4">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G4">
-        <v>2.55</v>
+        <v>4.65</v>
       </c>
       <c r="H4">
-        <v>3.19</v>
+        <v>3.73</v>
       </c>
       <c r="I4">
-        <v>2.87</v>
+        <v>1.7</v>
       </c>
       <c r="J4">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="K4">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="L4">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M4">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N4">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="O4">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="P4">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="Q4">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="R4">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T4">
-        <v>1.42</v>
+        <v>2.1</v>
       </c>
       <c r="U4">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="V4">
-        <v>1.52</v>
+        <v>1.19</v>
       </c>
       <c r="W4">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0.63</v>
+        <v>1.71</v>
       </c>
       <c r="Y4">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="Z4">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AA4">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="AB4">
-        <v>1.71</v>
+        <v>3.45</v>
       </c>
       <c r="AC4">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="AD4">
-        <v>2.4</v>
+        <v>1.39</v>
       </c>
       <c r="AE4">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="AF4">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AG4">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="AH4">
-        <v>2.65</v>
+        <v>2.32</v>
       </c>
       <c r="AI4">
-        <v>3.65</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1213,16 +1255,16 @@
         <v>45124</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G5">
         <v>2.87</v>
@@ -1320,64 +1362,64 @@
         <v>45124</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G6">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="H6">
-        <v>3.18</v>
+        <v>3.25</v>
       </c>
       <c r="I6">
-        <v>4.09</v>
+        <v>4.33</v>
       </c>
       <c r="J6">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K6">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="L6">
-        <v>1.49</v>
+        <v>1.33</v>
       </c>
       <c r="M6">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="N6">
-        <v>2.35</v>
+        <v>1.95</v>
       </c>
       <c r="O6">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="P6">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="Q6">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="R6">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="S6">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="T6">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="U6">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="V6">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1395,28 +1437,28 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>2.61</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>2.21</v>
+        <v>1.95</v>
       </c>
       <c r="AH6">
-        <v>2.98</v>
+        <v>2.5</v>
       </c>
       <c r="AI6">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1427,103 +1469,103 @@
         <v>45124</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G7">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="H7">
-        <v>3.76</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>5.11</v>
+        <v>3.7</v>
       </c>
       <c r="J7">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K7">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="L7">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="M7">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="N7">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="O7">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="P7">
+        <v>1.53</v>
+      </c>
+      <c r="Q7">
+        <v>2.38</v>
+      </c>
+      <c r="R7">
+        <v>2.1</v>
+      </c>
+      <c r="S7">
+        <v>1.67</v>
+      </c>
+      <c r="T7">
+        <v>1.28</v>
+      </c>
+      <c r="U7">
+        <v>1.32</v>
+      </c>
+      <c r="V7">
+        <v>1.72</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>1.71</v>
+      </c>
+      <c r="AC7">
+        <v>8.5</v>
+      </c>
+      <c r="AD7">
+        <v>2.61</v>
+      </c>
+      <c r="AE7">
         <v>1.4</v>
       </c>
-      <c r="Q7">
-        <v>2.75</v>
-      </c>
-      <c r="R7">
-        <v>1.83</v>
-      </c>
-      <c r="S7">
-        <v>1.83</v>
-      </c>
-      <c r="T7">
-        <v>1.18</v>
-      </c>
-      <c r="U7">
-        <v>1.25</v>
-      </c>
-      <c r="V7">
-        <v>1.9</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1534,346 +1576,346 @@
         <v>45124</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D8">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G8">
-        <v>4.28</v>
+        <v>2.8</v>
       </c>
       <c r="H8">
-        <v>3.64</v>
+        <v>3.4</v>
       </c>
       <c r="I8">
-        <v>1.84</v>
+        <v>2.3</v>
       </c>
       <c r="J8">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L8">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="M8">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="N8">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="O8">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="P8">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="Q8">
-        <v>2.85</v>
+        <v>3.15</v>
       </c>
       <c r="R8">
-        <v>1.88</v>
+        <v>1.61</v>
       </c>
       <c r="S8">
-        <v>1.92</v>
+        <v>2.25</v>
       </c>
       <c r="T8">
+        <v>1.56</v>
+      </c>
+      <c r="U8">
+        <v>1.32</v>
+      </c>
+      <c r="V8">
+        <v>1.46</v>
+      </c>
+      <c r="W8">
+        <v>2.75</v>
+      </c>
+      <c r="X8">
+        <v>2.5</v>
+      </c>
+      <c r="Y8">
+        <v>1.87</v>
+      </c>
+      <c r="Z8">
+        <v>1.95</v>
+      </c>
+      <c r="AA8">
+        <v>3.82</v>
+      </c>
+      <c r="AB8">
+        <v>1.95</v>
+      </c>
+      <c r="AC8">
+        <v>8</v>
+      </c>
+      <c r="AD8">
+        <v>2.1</v>
+      </c>
+      <c r="AE8">
+        <v>1.17</v>
+      </c>
+      <c r="AF8">
+        <v>1.34</v>
+      </c>
+      <c r="AG8">
+        <v>1.7</v>
+      </c>
+      <c r="AH8">
         <v>2</v>
       </c>
-      <c r="U8">
-        <v>1.25</v>
-      </c>
-      <c r="V8">
-        <v>1.22</v>
-      </c>
-      <c r="W8">
-        <v>0.43</v>
-      </c>
-      <c r="X8">
-        <v>0.57</v>
-      </c>
-      <c r="Y8">
-        <v>1.17</v>
-      </c>
-      <c r="Z8">
-        <v>1.23</v>
-      </c>
-      <c r="AA8">
-        <v>2.4</v>
-      </c>
-      <c r="AB8">
-        <v>2.66</v>
-      </c>
-      <c r="AC8">
-        <v>8.5</v>
-      </c>
-      <c r="AD8">
-        <v>1.64</v>
-      </c>
-      <c r="AE8">
-        <v>1.15</v>
-      </c>
-      <c r="AF8">
-        <v>1.31</v>
-      </c>
-      <c r="AG8">
-        <v>1.63</v>
-      </c>
-      <c r="AH8">
-        <v>1.93</v>
-      </c>
       <c r="AI8">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2">
         <v>45124</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G9">
-        <v>2.85</v>
+        <v>2.3</v>
       </c>
       <c r="H9">
-        <v>3.52</v>
+        <v>3.3</v>
       </c>
       <c r="I9">
-        <v>2.39</v>
+        <v>2.9</v>
       </c>
       <c r="J9">
         <v>1.04</v>
       </c>
       <c r="K9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L9">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="M9">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="N9">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O9">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="P9">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="Q9">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="R9">
+        <v>1.72</v>
+      </c>
+      <c r="S9">
+        <v>2.05</v>
+      </c>
+      <c r="T9">
+        <v>1.3</v>
+      </c>
+      <c r="U9">
+        <v>1.25</v>
+      </c>
+      <c r="V9">
+        <v>1.78</v>
+      </c>
+      <c r="W9">
+        <v>1.43</v>
+      </c>
+      <c r="X9">
+        <v>0.67</v>
+      </c>
+      <c r="Y9">
         <v>1.61</v>
       </c>
-      <c r="S9">
-        <v>2.25</v>
-      </c>
-      <c r="T9">
-        <v>1.56</v>
-      </c>
-      <c r="U9">
-        <v>1.32</v>
-      </c>
-      <c r="V9">
+      <c r="Z9">
+        <v>1.1</v>
+      </c>
+      <c r="AA9">
+        <v>2.71</v>
+      </c>
+      <c r="AB9">
         <v>1.46</v>
       </c>
-      <c r="W9">
-        <v>2.75</v>
-      </c>
-      <c r="X9">
-        <v>2.5</v>
-      </c>
-      <c r="Y9">
-        <v>1.87</v>
-      </c>
-      <c r="Z9">
-        <v>1.95</v>
-      </c>
-      <c r="AA9">
-        <v>3.82</v>
-      </c>
-      <c r="AB9">
-        <v>1.95</v>
-      </c>
       <c r="AC9">
-        <v>8</v>
+        <v>6.25</v>
       </c>
       <c r="AD9">
-        <v>2.1</v>
+        <v>2.95</v>
       </c>
       <c r="AE9">
         <v>1.17</v>
       </c>
       <c r="AF9">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AG9">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="AH9">
         <v>2</v>
       </c>
       <c r="AI9">
-        <v>2.47</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2">
         <v>45124</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G10">
-        <v>2.09</v>
+        <v>4.33</v>
       </c>
       <c r="H10">
-        <v>3.46</v>
+        <v>3.6</v>
       </c>
       <c r="I10">
-        <v>3.31</v>
+        <v>1.75</v>
       </c>
       <c r="J10">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L10">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="M10">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N10">
+        <v>1.9</v>
+      </c>
+      <c r="O10">
+        <v>1.8</v>
+      </c>
+      <c r="P10">
+        <v>1.42</v>
+      </c>
+      <c r="Q10">
+        <v>2.85</v>
+      </c>
+      <c r="R10">
         <v>1.88</v>
       </c>
-      <c r="O10">
+      <c r="S10">
         <v>1.92</v>
       </c>
-      <c r="P10">
-        <v>1.37</v>
-      </c>
-      <c r="Q10">
-        <v>2.95</v>
-      </c>
-      <c r="R10">
-        <v>1.72</v>
-      </c>
-      <c r="S10">
-        <v>2.05</v>
-      </c>
       <c r="T10">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="U10">
         <v>1.25</v>
       </c>
       <c r="V10">
-        <v>1.78</v>
+        <v>1.22</v>
       </c>
       <c r="W10">
-        <v>1.43</v>
+        <v>0.43</v>
       </c>
       <c r="X10">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="Y10">
-        <v>1.61</v>
+        <v>1.17</v>
       </c>
       <c r="Z10">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
       <c r="AA10">
-        <v>2.71</v>
+        <v>2.4</v>
       </c>
       <c r="AB10">
-        <v>1.46</v>
+        <v>2.66</v>
       </c>
       <c r="AC10">
-        <v>6.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD10">
-        <v>2.95</v>
+        <v>1.64</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF10">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AG10">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="AH10">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AI10">
-        <v>2.36</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2">
         <v>45124</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G11">
-        <v>3.39</v>
+        <v>3.4</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
       <c r="I11">
-        <v>2.26</v>
+        <v>2.05</v>
       </c>
       <c r="J11">
         <v>1.1</v>
@@ -1891,7 +1933,7 @@
         <v>2.3</v>
       </c>
       <c r="O11">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P11">
         <v>1.5</v>
@@ -1945,13 +1987,13 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1962,25 +2004,25 @@
         <v>45124</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D12">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G12">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="H12">
-        <v>3.09</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>5.06</v>
+        <v>4.6</v>
       </c>
       <c r="J12">
         <v>1.12</v>
@@ -1989,16 +2031,16 @@
         <v>6</v>
       </c>
       <c r="L12">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="M12">
-        <v>2.36</v>
+        <v>2.1</v>
       </c>
       <c r="N12">
-        <v>2.53</v>
+        <v>2.9</v>
       </c>
       <c r="O12">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P12">
         <v>1.67</v>
@@ -2069,25 +2111,25 @@
         <v>45124</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D13">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G13">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="H13">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I13">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J13">
         <v>1.1</v>
@@ -2105,7 +2147,7 @@
         <v>2.3</v>
       </c>
       <c r="O13">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="P13">
         <v>1.51</v>
@@ -2144,13 +2186,13 @@
         <v>2.92</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AE13">
         <v>1.32</v>
@@ -2165,36 +2207,36 @@
         <v>2.8</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="14" spans="1:35">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2">
         <v>45124</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G14">
-        <v>3.41</v>
+        <v>4.5</v>
       </c>
       <c r="H14">
-        <v>3.22</v>
+        <v>3.6</v>
       </c>
       <c r="I14">
-        <v>2.22</v>
+        <v>1.75</v>
       </c>
       <c r="J14">
         <v>1.04</v>
@@ -2209,10 +2251,10 @@
         <v>3.1</v>
       </c>
       <c r="N14">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O14">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P14">
         <v>1.44</v>
@@ -2283,25 +2325,25 @@
         <v>45124</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D15">
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G15">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="H15">
-        <v>3.56</v>
+        <v>3.3</v>
       </c>
       <c r="I15">
-        <v>3.83</v>
+        <v>3.9</v>
       </c>
       <c r="J15">
         <v>1.02</v>
@@ -2316,7 +2358,7 @@
         <v>3.2</v>
       </c>
       <c r="N15">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="O15">
         <v>1.83</v>
@@ -2390,25 +2432,25 @@
         <v>45124</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D16">
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G16">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>3.58</v>
+        <v>3.3</v>
       </c>
       <c r="I16">
-        <v>3.32</v>
+        <v>3.25</v>
       </c>
       <c r="J16">
         <v>1.03</v>
@@ -2423,10 +2465,10 @@
         <v>3.75</v>
       </c>
       <c r="N16">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O16">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P16">
         <v>1.33</v>
@@ -2497,25 +2539,25 @@
         <v>45124</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D17">
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G17">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="H17">
-        <v>3.08</v>
+        <v>2.9</v>
       </c>
       <c r="I17">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J17">
         <v>1.06</v>
@@ -2572,25 +2614,25 @@
         <v>3.02</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG17">
         <v>1.95</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AI17">
         <v>0</v>
@@ -2604,25 +2646,25 @@
         <v>45124</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D18">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H18">
-        <v>3.78</v>
+        <v>3.75</v>
       </c>
       <c r="I18">
-        <v>2.16</v>
+        <v>1.91</v>
       </c>
       <c r="J18">
         <v>1.02</v>
@@ -2640,7 +2682,7 @@
         <v>1.4</v>
       </c>
       <c r="O18">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P18">
         <v>1.22</v>
@@ -2688,7 +2730,7 @@
         <v>2.03</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AF18">
         <v>1.16</v>
@@ -2711,25 +2753,25 @@
         <v>45124</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D19">
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G19">
-        <v>4.28</v>
+        <v>5.5</v>
       </c>
       <c r="H19">
-        <v>3.56</v>
+        <v>4.33</v>
       </c>
       <c r="I19">
-        <v>1.7</v>
+        <v>1.44</v>
       </c>
       <c r="J19">
         <v>1.06</v>
@@ -2744,10 +2786,10 @@
         <v>3.25</v>
       </c>
       <c r="N19">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="O19">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="P19">
         <v>1.43</v>
@@ -2818,123 +2860,123 @@
         <v>45124</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D20">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20">
+        <v>1.95</v>
+      </c>
+      <c r="H20">
+        <v>3.3</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>1.07</v>
+      </c>
+      <c r="K20">
+        <v>7.77</v>
+      </c>
+      <c r="L20">
+        <v>1.45</v>
+      </c>
+      <c r="M20">
+        <v>2.69</v>
+      </c>
+      <c r="N20">
+        <v>2.35</v>
+      </c>
+      <c r="O20">
+        <v>1.57</v>
+      </c>
+      <c r="P20">
+        <v>1.49</v>
+      </c>
+      <c r="Q20">
+        <v>2.47</v>
+      </c>
+      <c r="R20">
+        <v>2.06</v>
+      </c>
+      <c r="S20">
+        <v>1.69</v>
+      </c>
+      <c r="T20">
+        <v>1.25</v>
+      </c>
+      <c r="U20">
+        <v>1.28</v>
+      </c>
+      <c r="V20">
+        <v>1.85</v>
+      </c>
+      <c r="W20">
+        <v>1.36</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>1.75</v>
+      </c>
+      <c r="Z20">
+        <v>1.18</v>
+      </c>
+      <c r="AA20">
+        <v>2.93</v>
+      </c>
+      <c r="AB20">
+        <v>1.55</v>
+      </c>
+      <c r="AC20">
+        <v>8</v>
+      </c>
+      <c r="AD20">
+        <v>3.02</v>
+      </c>
+      <c r="AE20">
+        <v>1.27</v>
+      </c>
+      <c r="AF20">
+        <v>1.5</v>
+      </c>
+      <c r="AG20">
         <v>2</v>
       </c>
-      <c r="E20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20">
-        <v>2.97</v>
-      </c>
-      <c r="H20">
-        <v>3.17</v>
-      </c>
-      <c r="I20">
-        <v>2.55</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>2.05</v>
-      </c>
-      <c r="O20">
-        <v>1.72</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0.55</v>
-      </c>
-      <c r="X20">
-        <v>0.91</v>
-      </c>
-      <c r="Y20">
-        <v>1.06</v>
-      </c>
-      <c r="Z20">
-        <v>1.32</v>
-      </c>
-      <c r="AA20">
-        <v>2.38</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
       <c r="AH20">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2">
         <v>45124</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D21">
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F21" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G21">
         <v>2.95</v>
@@ -3032,103 +3074,103 @@
         <v>45124</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G22">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="H22">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="J22">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>7.77</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>2.69</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="O22">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="P22">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>2.47</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>1.36</v>
+        <v>0.55</v>
       </c>
       <c r="X22">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="Y22">
-        <v>1.75</v>
+        <v>1.06</v>
       </c>
       <c r="Z22">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="AA22">
-        <v>2.93</v>
+        <v>2.38</v>
       </c>
       <c r="AB22">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD22">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="AE22">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AG22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH22">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AI22">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -3139,25 +3181,25 @@
         <v>45124</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D23">
         <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F23" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G23">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="H23">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="I23">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="J23">
         <v>1.02</v>
@@ -3172,10 +3214,10 @@
         <v>4.5</v>
       </c>
       <c r="N23">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="O23">
-        <v>2.28</v>
+        <v>2.33</v>
       </c>
       <c r="P23">
         <v>1.28</v>
@@ -3246,25 +3288,25 @@
         <v>45124</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D24">
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F24" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G24">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="H24">
-        <v>3.21</v>
+        <v>3.25</v>
       </c>
       <c r="I24">
-        <v>3.41</v>
+        <v>2.88</v>
       </c>
       <c r="J24">
         <v>1.06</v>
@@ -3353,25 +3395,25 @@
         <v>45124</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D25">
         <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F25" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G25">
-        <v>2.52</v>
+        <v>2.2</v>
       </c>
       <c r="H25">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="I25">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="J25">
         <v>1.07</v>
@@ -3386,10 +3428,10 @@
         <v>3.25</v>
       </c>
       <c r="N25">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="O25">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P25">
         <v>1.4</v>
@@ -3460,25 +3502,25 @@
         <v>45124</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D26">
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F26" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G26">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="H26">
         <v>2.88</v>
       </c>
       <c r="I26">
-        <v>3.08</v>
+        <v>3</v>
       </c>
       <c r="J26">
         <v>1.06</v>
@@ -3535,25 +3577,25 @@
         <v>2.5</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AE26">
         <v>0</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AI26">
         <v>0</v>
@@ -3567,25 +3609,25 @@
         <v>45124</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D27">
         <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F27" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G27">
-        <v>2.83</v>
+        <v>2.63</v>
       </c>
       <c r="H27">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I27">
-        <v>2.93</v>
+        <v>2.88</v>
       </c>
       <c r="J27">
         <v>1.12</v>
@@ -3603,7 +3645,7 @@
         <v>2.55</v>
       </c>
       <c r="O27">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P27">
         <v>1.53</v>
@@ -3651,10 +3693,10 @@
         <v>2.7</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AG27">
         <v>1.68</v>
@@ -3674,49 +3716,49 @@
         <v>45124</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D28">
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F28" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G28">
-        <v>4.13</v>
+        <v>4.6</v>
       </c>
       <c r="H28">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I28">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="N28">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="O28">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R28">
         <v>2.1</v>
@@ -3725,13 +3767,13 @@
         <v>1.67</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W28">
         <v>1.17</v>
@@ -3758,48 +3800,48 @@
         <v>1.8</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AG28">
         <v>2.2</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="29" spans="1:35">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B29" s="2">
         <v>45124</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F29" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3814,10 +3856,10 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -3841,19 +3883,19 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>2.33</v>
+        <v>1.36</v>
       </c>
       <c r="X29">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="Y29">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="Z29">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="AA29">
-        <v>3.15</v>
+        <v>2.79</v>
       </c>
       <c r="AB29">
         <v>0</v>
@@ -3882,85 +3924,85 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B30" s="2">
         <v>45124</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G30">
+        <v>1.9</v>
+      </c>
+      <c r="H30">
+        <v>3.1</v>
+      </c>
+      <c r="I30">
+        <v>3.9</v>
+      </c>
+      <c r="J30">
+        <v>1.05</v>
+      </c>
+      <c r="K30">
+        <v>8</v>
+      </c>
+      <c r="L30">
+        <v>1.38</v>
+      </c>
+      <c r="M30">
+        <v>2.8</v>
+      </c>
+      <c r="N30">
+        <v>2.16</v>
+      </c>
+      <c r="O30">
+        <v>1.62</v>
+      </c>
+      <c r="P30">
+        <v>1.44</v>
+      </c>
+      <c r="Q30">
+        <v>2.52</v>
+      </c>
+      <c r="R30">
+        <v>2.06</v>
+      </c>
+      <c r="S30">
         <v>1.73</v>
       </c>
-      <c r="H30">
-        <v>3.76</v>
-      </c>
-      <c r="I30">
-        <v>5.07</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>2.02</v>
-      </c>
-      <c r="O30">
-        <v>1.83</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
       <c r="T30">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="W30">
-        <v>1.36</v>
+        <v>2.33</v>
       </c>
       <c r="X30">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="Y30">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="Z30">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="AA30">
-        <v>2.79</v>
+        <v>3.15</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -3989,22 +4031,22 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2">
         <v>45124</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D31">
         <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G31">
         <v>1.97</v>
@@ -4096,109 +4138,537 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2">
         <v>45124</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D32">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F32" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G32">
-        <v>1.74</v>
+        <v>1.55</v>
       </c>
       <c r="H32">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I32">
-        <v>4.58</v>
+        <v>5.5</v>
       </c>
       <c r="J32">
         <v>1.01</v>
       </c>
       <c r="K32">
+        <v>9</v>
+      </c>
+      <c r="L32">
+        <v>1.28</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>1.67</v>
+      </c>
+      <c r="P32">
+        <v>1.41</v>
+      </c>
+      <c r="Q32">
+        <v>2.7</v>
+      </c>
+      <c r="R32">
+        <v>1.86</v>
+      </c>
+      <c r="S32">
+        <v>1.74</v>
+      </c>
+      <c r="T32">
+        <v>1.16</v>
+      </c>
+      <c r="U32">
+        <v>1.21</v>
+      </c>
+      <c r="V32">
+        <v>1.9</v>
+      </c>
+      <c r="W32">
+        <v>2.71</v>
+      </c>
+      <c r="X32">
+        <v>0.86</v>
+      </c>
+      <c r="Y32">
+        <v>1.4</v>
+      </c>
+      <c r="Z32">
+        <v>1.1</v>
+      </c>
+      <c r="AA32">
+        <v>2.5</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45124</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" t="s">
+        <v>142</v>
+      </c>
+      <c r="G33">
+        <v>1.65</v>
+      </c>
+      <c r="H33">
+        <v>3.6</v>
+      </c>
+      <c r="I33">
+        <v>4.6</v>
+      </c>
+      <c r="J33">
+        <v>1.01</v>
+      </c>
+      <c r="K33">
         <v>9.300000000000001</v>
       </c>
-      <c r="L32">
+      <c r="L33">
         <v>1.26</v>
       </c>
-      <c r="M32">
+      <c r="M33">
         <v>3.34</v>
       </c>
-      <c r="N32">
-        <v>1.9</v>
-      </c>
-      <c r="O32">
-        <v>1.9</v>
-      </c>
-      <c r="P32">
+      <c r="N33">
+        <v>1.87</v>
+      </c>
+      <c r="O33">
+        <v>1.87</v>
+      </c>
+      <c r="P33">
         <v>1.36</v>
       </c>
-      <c r="Q32">
+      <c r="Q33">
         <v>3</v>
       </c>
-      <c r="R32">
+      <c r="R33">
         <v>1.83</v>
       </c>
-      <c r="S32">
+      <c r="S33">
         <v>1.93</v>
       </c>
-      <c r="T32">
+      <c r="T33">
         <v>1.18</v>
       </c>
-      <c r="U32">
+      <c r="U33">
         <v>1.22</v>
       </c>
-      <c r="V32">
+      <c r="V33">
         <v>2</v>
       </c>
-      <c r="W32">
+      <c r="W33">
         <v>1.38</v>
       </c>
-      <c r="X32">
+      <c r="X33">
         <v>1.38</v>
       </c>
-      <c r="Y32">
+      <c r="Y33">
         <v>1.42</v>
       </c>
-      <c r="Z32">
+      <c r="Z33">
         <v>1.6</v>
       </c>
-      <c r="AA32">
+      <c r="AA33">
         <v>3.02</v>
       </c>
-      <c r="AB32">
+      <c r="AB33">
         <v>1.64</v>
       </c>
-      <c r="AC32">
+      <c r="AC33">
         <v>8</v>
       </c>
-      <c r="AD32">
+      <c r="AD33">
         <v>2.77</v>
       </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>0</v>
+      <c r="AE33">
+        <v>1.36</v>
+      </c>
+      <c r="AF33">
+        <v>1.67</v>
+      </c>
+      <c r="AG33">
+        <v>2.1</v>
+      </c>
+      <c r="AH33">
+        <v>2.84</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45124</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34">
+        <v>2.63</v>
+      </c>
+      <c r="H34">
+        <v>2.88</v>
+      </c>
+      <c r="I34">
+        <v>2.6</v>
+      </c>
+      <c r="J34">
+        <v>1.06</v>
+      </c>
+      <c r="K34">
+        <v>6.5</v>
+      </c>
+      <c r="L34">
+        <v>1.48</v>
+      </c>
+      <c r="M34">
+        <v>2.48</v>
+      </c>
+      <c r="N34">
+        <v>2.35</v>
+      </c>
+      <c r="O34">
+        <v>1.53</v>
+      </c>
+      <c r="P34">
+        <v>1.51</v>
+      </c>
+      <c r="Q34">
+        <v>2.37</v>
+      </c>
+      <c r="R34">
+        <v>2.05</v>
+      </c>
+      <c r="S34">
+        <v>1.66</v>
+      </c>
+      <c r="T34">
+        <v>1.53</v>
+      </c>
+      <c r="U34">
+        <v>1.34</v>
+      </c>
+      <c r="V34">
+        <v>1.38</v>
+      </c>
+      <c r="W34">
+        <v>1.3</v>
+      </c>
+      <c r="X34">
+        <v>1.6</v>
+      </c>
+      <c r="Y34">
+        <v>1.45</v>
+      </c>
+      <c r="Z34">
+        <v>1.41</v>
+      </c>
+      <c r="AA34">
+        <v>2.86</v>
+      </c>
+      <c r="AB34">
+        <v>1.88</v>
+      </c>
+      <c r="AC34">
+        <v>8.5</v>
+      </c>
+      <c r="AD34">
+        <v>2.25</v>
+      </c>
+      <c r="AE34">
+        <v>1.38</v>
+      </c>
+      <c r="AF34">
+        <v>1.72</v>
+      </c>
+      <c r="AG34">
+        <v>2.19</v>
+      </c>
+      <c r="AH34">
+        <v>2.9</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45124</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35">
+        <v>1.63</v>
+      </c>
+      <c r="H35">
+        <v>3.62</v>
+      </c>
+      <c r="I35">
+        <v>5.27</v>
+      </c>
+      <c r="J35">
+        <v>1.06</v>
+      </c>
+      <c r="K35">
+        <v>9.4</v>
+      </c>
+      <c r="L35">
+        <v>1.36</v>
+      </c>
+      <c r="M35">
+        <v>2.9</v>
+      </c>
+      <c r="N35">
+        <v>2.16</v>
+      </c>
+      <c r="O35">
+        <v>1.68</v>
+      </c>
+      <c r="P35">
+        <v>1.45</v>
+      </c>
+      <c r="Q35">
+        <v>2.55</v>
+      </c>
+      <c r="R35">
+        <v>2.1</v>
+      </c>
+      <c r="S35">
+        <v>1.68</v>
+      </c>
+      <c r="T35">
+        <v>1.15</v>
+      </c>
+      <c r="U35">
+        <v>1.24</v>
+      </c>
+      <c r="V35">
+        <v>2.1</v>
+      </c>
+      <c r="W35">
+        <v>2.25</v>
+      </c>
+      <c r="X35">
+        <v>0.88</v>
+      </c>
+      <c r="Y35">
+        <v>1.8</v>
+      </c>
+      <c r="Z35">
+        <v>1.45</v>
+      </c>
+      <c r="AA35">
+        <v>3.25</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>1.98</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45124</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" t="s">
+        <v>145</v>
+      </c>
+      <c r="G36">
+        <v>2.25</v>
+      </c>
+      <c r="H36">
+        <v>3.1</v>
+      </c>
+      <c r="I36">
+        <v>3.25</v>
+      </c>
+      <c r="J36">
+        <v>1.06</v>
+      </c>
+      <c r="K36">
+        <v>9.5</v>
+      </c>
+      <c r="L36">
+        <v>1.32</v>
+      </c>
+      <c r="M36">
+        <v>3.4</v>
+      </c>
+      <c r="N36">
+        <v>1.95</v>
+      </c>
+      <c r="O36">
+        <v>1.75</v>
+      </c>
+      <c r="P36">
+        <v>1.38</v>
+      </c>
+      <c r="Q36">
+        <v>2.8</v>
+      </c>
+      <c r="R36">
+        <v>1.77</v>
+      </c>
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <v>1.34</v>
+      </c>
+      <c r="U36">
+        <v>1.35</v>
+      </c>
+      <c r="V36">
+        <v>1.67</v>
+      </c>
+      <c r="W36">
+        <v>1.6</v>
+      </c>
+      <c r="X36">
+        <v>0.8</v>
+      </c>
+      <c r="Y36">
+        <v>1.61</v>
+      </c>
+      <c r="Z36">
+        <v>1.39</v>
+      </c>
+      <c r="AA36">
+        <v>3</v>
+      </c>
+      <c r="AB36">
+        <v>1.91</v>
+      </c>
+      <c r="AC36">
+        <v>8.5</v>
+      </c>
+      <c r="AD36">
+        <v>2.21</v>
+      </c>
+      <c r="AE36">
+        <v>1.36</v>
+      </c>
+      <c r="AF36">
+        <v>1.7</v>
+      </c>
+      <c r="AG36">
+        <v>2.11</v>
+      </c>
+      <c r="AH36">
+        <v>2.52</v>
+      </c>
+      <c r="AI36">
+        <v>3.9</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-07-17_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-17_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -157,12 +157,12 @@
     <t>Peru Primera División</t>
   </si>
   <si>
+    <t>Paraguay Division Profesional</t>
+  </si>
+  <si>
     <t>Argentina Primera División</t>
   </si>
   <si>
-    <t>Paraguay Division Profesional</t>
-  </si>
-  <si>
     <t>Uruguay Primera División</t>
   </si>
   <si>
@@ -244,15 +244,15 @@
     <t>22:00:00</t>
   </si>
   <si>
+    <t>Shijiazhuang Ever Bright</t>
+  </si>
+  <si>
     <t>Shanghai Shenhua</t>
   </si>
   <si>
     <t>Qingdao Jonoon</t>
   </si>
   <si>
-    <t>Shijiazhuang Ever Bright</t>
-  </si>
-  <si>
     <t>Inter Turku</t>
   </si>
   <si>
@@ -262,15 +262,15 @@
     <t>Voluntari</t>
   </si>
   <si>
+    <t>Varberg</t>
+  </si>
+  <si>
     <t>Djurgården</t>
   </si>
   <si>
     <t>Örebro</t>
   </si>
   <si>
-    <t>Varberg</t>
-  </si>
-  <si>
     <t>Etar</t>
   </si>
   <si>
@@ -298,15 +298,15 @@
     <t>Deportivo Municipal</t>
   </si>
   <si>
+    <t>Guaireña</t>
+  </si>
+  <si>
     <t>Tigre</t>
   </si>
   <si>
     <t>Arsenal de Sarandí</t>
   </si>
   <si>
-    <t>Guaireña</t>
-  </si>
-  <si>
     <t>The Strongest</t>
   </si>
   <si>
@@ -316,30 +316,30 @@
     <t>Unión Española</t>
   </si>
   <si>
+    <t>Botafogo SP</t>
+  </si>
+  <si>
     <t>Paysandu</t>
   </si>
   <si>
-    <t>Botafogo SP</t>
-  </si>
-  <si>
     <t>Goiás</t>
   </si>
   <si>
+    <t>Newell's Old Boys</t>
+  </si>
+  <si>
+    <t>Democrata GV</t>
+  </si>
+  <si>
     <t>Nacional Asunción</t>
   </si>
   <si>
-    <t>Democrata GV</t>
-  </si>
-  <si>
-    <t>Newell's Old Boys</t>
+    <t>Oriente Petrolero</t>
   </si>
   <si>
     <t>Deportes Limache</t>
   </si>
   <si>
-    <t>Oriente Petrolero</t>
-  </si>
-  <si>
     <t>Atlanta</t>
   </si>
   <si>
@@ -349,15 +349,15 @@
     <t>Deportivo Pereira</t>
   </si>
   <si>
+    <t>Chengdu Better City FC</t>
+  </si>
+  <si>
     <t>Meizhou Hakka</t>
   </si>
   <si>
     <t>Henan Jianye</t>
   </si>
   <si>
-    <t>Chengdu Better City FC</t>
-  </si>
-  <si>
     <t>KuPS</t>
   </si>
   <si>
@@ -367,15 +367,15 @@
     <t>Botoşani</t>
   </si>
   <si>
+    <t>AIK</t>
+  </si>
+  <si>
     <t>Malmö FF</t>
   </si>
   <si>
     <t>Trelleborg</t>
   </si>
   <si>
-    <t>AIK</t>
-  </si>
-  <si>
     <t>Slavia Sofia</t>
   </si>
   <si>
@@ -403,15 +403,15 @@
     <t>Melgar</t>
   </si>
   <si>
+    <t>Sportivo Luqueño</t>
+  </si>
+  <si>
     <t>Barracas Central</t>
   </si>
   <si>
     <t>Instituto</t>
   </si>
   <si>
-    <t>Sportivo Luqueño</t>
-  </si>
-  <si>
     <t>Independiente Petrolero</t>
   </si>
   <si>
@@ -421,28 +421,28 @@
     <t>Universidad Chile</t>
   </si>
   <si>
+    <t>Criciúma</t>
+  </si>
+  <si>
     <t>Remo</t>
   </si>
   <si>
-    <t>Criciúma</t>
-  </si>
-  <si>
     <t>Atlético Mineiro</t>
   </si>
   <si>
+    <t>Atlético Tucumán</t>
+  </si>
+  <si>
+    <t>Resende</t>
+  </si>
+  <si>
     <t>Tacuary</t>
   </si>
   <si>
-    <t>Resende</t>
-  </si>
-  <si>
-    <t>Atlético Tucumán</t>
+    <t>Universitario de Vinto</t>
   </si>
   <si>
     <t>Deportes Rengo</t>
-  </si>
-  <si>
-    <t>Universitario de Vinto</t>
   </si>
   <si>
     <t>Deportivo Maipú</t>
@@ -946,91 +946,91 @@
         <v>111</v>
       </c>
       <c r="G2">
-        <v>1.62</v>
+        <v>4.65</v>
       </c>
       <c r="H2">
-        <v>3.7</v>
+        <v>3.73</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="J2">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L2">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M2">
         <v>3.3</v>
       </c>
       <c r="N2">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O2">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="P2">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="Q2">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R2">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S2">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T2">
-        <v>1.11</v>
+        <v>2.1</v>
       </c>
       <c r="U2">
+        <v>1.27</v>
+      </c>
+      <c r="V2">
+        <v>1.19</v>
+      </c>
+      <c r="W2">
         <v>1.2</v>
       </c>
-      <c r="V2">
-        <v>2.2</v>
-      </c>
-      <c r="W2">
-        <v>1.88</v>
-      </c>
       <c r="X2">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="Y2">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="Z2">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="AA2">
-        <v>2.63</v>
+        <v>2.72</v>
       </c>
       <c r="AB2">
-        <v>1.34</v>
+        <v>3.45</v>
       </c>
       <c r="AC2">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="AD2">
-        <v>3.65</v>
+        <v>1.39</v>
       </c>
       <c r="AE2">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AF2">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="AG2">
-        <v>2.01</v>
+        <v>1.89</v>
       </c>
       <c r="AH2">
-        <v>2.49</v>
+        <v>2.32</v>
       </c>
       <c r="AI2">
-        <v>3.42</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -1053,91 +1053,91 @@
         <v>112</v>
       </c>
       <c r="G3">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="H3">
-        <v>3.19</v>
+        <v>3.55</v>
       </c>
       <c r="I3">
-        <v>2.87</v>
+        <v>4.9</v>
       </c>
       <c r="J3">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K3">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="L3">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M3">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N3">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="O3">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="P3">
         <v>1.41</v>
       </c>
       <c r="Q3">
-        <v>2.86</v>
+        <v>2.7</v>
       </c>
       <c r="R3">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S3">
+        <v>1.8</v>
+      </c>
+      <c r="T3">
+        <v>1.11</v>
+      </c>
+      <c r="U3">
+        <v>1.2</v>
+      </c>
+      <c r="V3">
+        <v>2.2</v>
+      </c>
+      <c r="W3">
         <v>2</v>
       </c>
-      <c r="T3">
-        <v>1.42</v>
-      </c>
-      <c r="U3">
-        <v>1.28</v>
-      </c>
-      <c r="V3">
-        <v>1.52</v>
-      </c>
-      <c r="W3">
-        <v>1.38</v>
-      </c>
       <c r="X3">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="Y3">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="Z3">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="AA3">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="AB3">
-        <v>1.71</v>
+        <v>1.34</v>
       </c>
       <c r="AC3">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD3">
-        <v>2.4</v>
+        <v>3.65</v>
       </c>
       <c r="AE3">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AF3">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="AG3">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="AH3">
-        <v>2.65</v>
+        <v>2.49</v>
       </c>
       <c r="AI3">
-        <v>3.65</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1160,91 +1160,91 @@
         <v>113</v>
       </c>
       <c r="G4">
-        <v>4.65</v>
+        <v>2.55</v>
       </c>
       <c r="H4">
-        <v>3.73</v>
+        <v>3.19</v>
       </c>
       <c r="I4">
-        <v>1.7</v>
+        <v>2.87</v>
       </c>
       <c r="J4">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="K4">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="L4">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M4">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N4">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="O4">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="P4">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="Q4">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="R4">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>2.1</v>
+        <v>1.42</v>
       </c>
       <c r="U4">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="V4">
-        <v>1.19</v>
+        <v>1.52</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="X4">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="Y4">
+        <v>1.53</v>
+      </c>
+      <c r="Z4">
+        <v>1.14</v>
+      </c>
+      <c r="AA4">
+        <v>2.67</v>
+      </c>
+      <c r="AB4">
         <v>1.71</v>
       </c>
-      <c r="Y4">
-        <v>1.43</v>
-      </c>
-      <c r="Z4">
-        <v>1.29</v>
-      </c>
-      <c r="AA4">
-        <v>2.72</v>
-      </c>
-      <c r="AB4">
-        <v>3.45</v>
-      </c>
       <c r="AC4">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="AD4">
-        <v>1.39</v>
+        <v>2.4</v>
       </c>
       <c r="AE4">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="AF4">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AG4">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="AH4">
-        <v>2.32</v>
+        <v>2.65</v>
       </c>
       <c r="AI4">
-        <v>3.18</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1315,10 +1315,10 @@
         <v>1.39</v>
       </c>
       <c r="W5">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="X5">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="Y5">
         <v>1.73</v>
@@ -1374,13 +1374,13 @@
         <v>115</v>
       </c>
       <c r="G6">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="H6">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="I6">
-        <v>4.33</v>
+        <v>3.55</v>
       </c>
       <c r="J6">
         <v>1.07</v>
@@ -1395,10 +1395,10 @@
         <v>3.1</v>
       </c>
       <c r="N6">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="O6">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="P6">
         <v>1.4</v>
@@ -1422,7 +1422,7 @@
         <v>1.9</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1481,13 +1481,13 @@
         <v>116</v>
       </c>
       <c r="G7">
-        <v>2.1</v>
+        <v>2.29</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="I7">
-        <v>3.7</v>
+        <v>2.86</v>
       </c>
       <c r="J7">
         <v>1.1</v>
@@ -1502,10 +1502,10 @@
         <v>2.55</v>
       </c>
       <c r="N7">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="O7">
-        <v>1.55</v>
+        <v>1.39</v>
       </c>
       <c r="P7">
         <v>1.53</v>
@@ -1529,7 +1529,7 @@
         <v>1.72</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1588,96 +1588,96 @@
         <v>117</v>
       </c>
       <c r="G8">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="H8">
+        <v>3.45</v>
+      </c>
+      <c r="I8">
+        <v>1.74</v>
+      </c>
+      <c r="J8">
+        <v>1.06</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>1.33</v>
+      </c>
+      <c r="M8">
         <v>3.4</v>
       </c>
-      <c r="I8">
-        <v>2.3</v>
-      </c>
-      <c r="J8">
-        <v>1.04</v>
-      </c>
-      <c r="K8">
-        <v>13</v>
-      </c>
-      <c r="L8">
-        <v>1.24</v>
-      </c>
-      <c r="M8">
-        <v>4.1</v>
-      </c>
       <c r="N8">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="O8">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="P8">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="Q8">
-        <v>3.15</v>
+        <v>2.85</v>
       </c>
       <c r="R8">
-        <v>1.61</v>
+        <v>1.88</v>
       </c>
       <c r="S8">
-        <v>2.25</v>
+        <v>1.92</v>
       </c>
       <c r="T8">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="U8">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="V8">
-        <v>1.46</v>
+        <v>1.22</v>
       </c>
       <c r="W8">
-        <v>2.75</v>
+        <v>0.38</v>
       </c>
       <c r="X8">
-        <v>2.5</v>
+        <v>0.88</v>
       </c>
       <c r="Y8">
-        <v>1.87</v>
+        <v>1.17</v>
       </c>
       <c r="Z8">
-        <v>1.95</v>
+        <v>1.23</v>
       </c>
       <c r="AA8">
-        <v>3.82</v>
+        <v>2.4</v>
       </c>
       <c r="AB8">
-        <v>1.95</v>
+        <v>2.66</v>
       </c>
       <c r="AC8">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD8">
-        <v>2.1</v>
+        <v>1.64</v>
       </c>
       <c r="AE8">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AF8">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="AG8">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="AH8">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AI8">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2">
         <v>45124</v>
@@ -1686,7 +1686,7 @@
         <v>59</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
         <v>83</v>
@@ -1695,96 +1695,96 @@
         <v>118</v>
       </c>
       <c r="G9">
-        <v>2.3</v>
+        <v>2.91</v>
       </c>
       <c r="H9">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I9">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="J9">
         <v>1.04</v>
       </c>
       <c r="K9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L9">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="M9">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="N9">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="O9">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="P9">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="Q9">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="R9">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="S9">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="T9">
-        <v>1.3</v>
+        <v>1.56</v>
       </c>
       <c r="U9">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="V9">
-        <v>1.78</v>
+        <v>1.46</v>
       </c>
       <c r="W9">
-        <v>1.43</v>
+        <v>2.78</v>
       </c>
       <c r="X9">
-        <v>0.67</v>
+        <v>2.14</v>
       </c>
       <c r="Y9">
-        <v>1.61</v>
+        <v>1.87</v>
       </c>
       <c r="Z9">
-        <v>1.1</v>
+        <v>1.95</v>
       </c>
       <c r="AA9">
-        <v>2.71</v>
+        <v>3.82</v>
       </c>
       <c r="AB9">
-        <v>1.46</v>
+        <v>1.95</v>
       </c>
       <c r="AC9">
-        <v>6.25</v>
+        <v>8</v>
       </c>
       <c r="AD9">
-        <v>2.95</v>
+        <v>2.1</v>
       </c>
       <c r="AE9">
         <v>1.17</v>
       </c>
       <c r="AF9">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AG9">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="AH9">
         <v>2</v>
       </c>
       <c r="AI9">
-        <v>2.36</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2">
         <v>45124</v>
@@ -1793,7 +1793,7 @@
         <v>59</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>84</v>
@@ -1802,91 +1802,91 @@
         <v>119</v>
       </c>
       <c r="G10">
-        <v>4.33</v>
+        <v>2.07</v>
       </c>
       <c r="H10">
+        <v>3.3</v>
+      </c>
+      <c r="I10">
+        <v>3.25</v>
+      </c>
+      <c r="J10">
+        <v>1.04</v>
+      </c>
+      <c r="K10">
+        <v>12</v>
+      </c>
+      <c r="L10">
+        <v>1.28</v>
+      </c>
+      <c r="M10">
         <v>3.6</v>
       </c>
-      <c r="I10">
-        <v>1.75</v>
-      </c>
-      <c r="J10">
-        <v>1.06</v>
-      </c>
-      <c r="K10">
-        <v>10</v>
-      </c>
-      <c r="L10">
-        <v>1.33</v>
-      </c>
-      <c r="M10">
-        <v>3.4</v>
-      </c>
       <c r="N10">
+        <v>1.74</v>
+      </c>
+      <c r="O10">
         <v>1.9</v>
       </c>
-      <c r="O10">
-        <v>1.8</v>
-      </c>
       <c r="P10">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="Q10">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="R10">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="S10">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="U10">
         <v>1.25</v>
       </c>
       <c r="V10">
-        <v>1.22</v>
+        <v>1.78</v>
       </c>
       <c r="W10">
-        <v>0.43</v>
+        <v>1.38</v>
       </c>
       <c r="X10">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
       <c r="Y10">
+        <v>1.61</v>
+      </c>
+      <c r="Z10">
+        <v>1.1</v>
+      </c>
+      <c r="AA10">
+        <v>2.71</v>
+      </c>
+      <c r="AB10">
+        <v>1.46</v>
+      </c>
+      <c r="AC10">
+        <v>6.25</v>
+      </c>
+      <c r="AD10">
+        <v>2.95</v>
+      </c>
+      <c r="AE10">
         <v>1.17</v>
       </c>
-      <c r="Z10">
-        <v>1.23</v>
-      </c>
-      <c r="AA10">
-        <v>2.4</v>
-      </c>
-      <c r="AB10">
-        <v>2.66</v>
-      </c>
-      <c r="AC10">
-        <v>8.5</v>
-      </c>
-      <c r="AD10">
-        <v>1.64</v>
-      </c>
-      <c r="AE10">
-        <v>1.15</v>
-      </c>
       <c r="AF10">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AG10">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="AH10">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AI10">
-        <v>2.45</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1909,13 +1909,13 @@
         <v>120</v>
       </c>
       <c r="G11">
-        <v>3.4</v>
+        <v>3.82</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I11">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="J11">
         <v>1.1</v>
@@ -1930,10 +1930,10 @@
         <v>2.65</v>
       </c>
       <c r="N11">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O11">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P11">
         <v>1.5</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>1.8</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2.83</v>
       </c>
       <c r="I12">
-        <v>4.6</v>
+        <v>4.95</v>
       </c>
       <c r="J12">
         <v>1.12</v>
@@ -2037,10 +2037,10 @@
         <v>2.1</v>
       </c>
       <c r="N12">
-        <v>2.9</v>
+        <v>2.53</v>
       </c>
       <c r="O12">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P12">
         <v>1.67</v>
@@ -2064,10 +2064,10 @@
         <v>1.9</v>
       </c>
       <c r="W12">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="X12">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="Y12">
         <v>1.23</v>
@@ -2123,13 +2123,13 @@
         <v>122</v>
       </c>
       <c r="G13">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H13">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I13">
-        <v>4.33</v>
+        <v>4.45</v>
       </c>
       <c r="J13">
         <v>1.1</v>
@@ -2144,10 +2144,10 @@
         <v>2.65</v>
       </c>
       <c r="N13">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="O13">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="P13">
         <v>1.51</v>
@@ -2171,10 +2171,10 @@
         <v>1.85</v>
       </c>
       <c r="W13">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="X13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Y13">
         <v>1.52</v>
@@ -2230,13 +2230,13 @@
         <v>123</v>
       </c>
       <c r="G14">
-        <v>4.5</v>
+        <v>5.45</v>
       </c>
       <c r="H14">
-        <v>3.6</v>
+        <v>3.64</v>
       </c>
       <c r="I14">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="J14">
         <v>1.04</v>
@@ -2251,10 +2251,10 @@
         <v>3.1</v>
       </c>
       <c r="N14">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="O14">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="P14">
         <v>1.44</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -2340,10 +2340,10 @@
         <v>1.85</v>
       </c>
       <c r="H15">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="I15">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J15">
         <v>1.02</v>
@@ -2358,10 +2358,10 @@
         <v>3.2</v>
       </c>
       <c r="N15">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="O15">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P15">
         <v>1.4</v>
@@ -2385,10 +2385,10 @@
         <v>1.86</v>
       </c>
       <c r="W15">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="X15">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="Y15">
         <v>1.69</v>
@@ -2444,13 +2444,13 @@
         <v>125</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H16">
-        <v>3.3</v>
+        <v>3.68</v>
       </c>
       <c r="I16">
-        <v>3.25</v>
+        <v>3.82</v>
       </c>
       <c r="J16">
         <v>1.03</v>
@@ -2465,10 +2465,10 @@
         <v>3.75</v>
       </c>
       <c r="N16">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="O16">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P16">
         <v>1.33</v>
@@ -2492,10 +2492,10 @@
         <v>1.9</v>
       </c>
       <c r="W16">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="X16">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Y16">
         <v>1.51</v>
@@ -2551,13 +2551,13 @@
         <v>126</v>
       </c>
       <c r="G17">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="H17">
-        <v>2.9</v>
+        <v>3.22</v>
       </c>
       <c r="I17">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="J17">
         <v>1.06</v>
@@ -2572,10 +2572,10 @@
         <v>2.45</v>
       </c>
       <c r="N17">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="O17">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="P17">
         <v>1.53</v>
@@ -2599,10 +2599,10 @@
         <v>1.61</v>
       </c>
       <c r="W17">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="X17">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="Y17">
         <v>1.68</v>
@@ -2658,13 +2658,13 @@
         <v>127</v>
       </c>
       <c r="G18">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="H18">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I18">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="J18">
         <v>1.02</v>
@@ -2679,10 +2679,10 @@
         <v>5.5</v>
       </c>
       <c r="N18">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="O18">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="P18">
         <v>1.22</v>
@@ -2706,10 +2706,10 @@
         <v>1.35</v>
       </c>
       <c r="W18">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="X18">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="Y18">
         <v>1.85</v>
@@ -2765,13 +2765,13 @@
         <v>128</v>
       </c>
       <c r="G19">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="H19">
-        <v>4.33</v>
+        <v>3.56</v>
       </c>
       <c r="I19">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="J19">
         <v>1.06</v>
@@ -2786,10 +2786,10 @@
         <v>3.25</v>
       </c>
       <c r="N19">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O19">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="P19">
         <v>1.43</v>
@@ -2813,10 +2813,10 @@
         <v>1.18</v>
       </c>
       <c r="W19">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="X19">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="Y19">
         <v>1.47</v>
@@ -2863,7 +2863,7 @@
         <v>66</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
         <v>94</v>
@@ -2872,96 +2872,96 @@
         <v>129</v>
       </c>
       <c r="G20">
-        <v>1.95</v>
+        <v>3.08</v>
       </c>
       <c r="H20">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>2.34</v>
       </c>
       <c r="J20">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>7.77</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>2.69</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="O20">
         <v>1.57</v>
       </c>
       <c r="P20">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>2.47</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>1.36</v>
+        <v>0.55</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="Y20">
-        <v>1.75</v>
+        <v>1.06</v>
       </c>
       <c r="Z20">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="AA20">
-        <v>2.93</v>
+        <v>2.38</v>
       </c>
       <c r="AB20">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD20">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="AE20">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AG20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH20">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AI20">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2">
         <v>45124</v>
@@ -2979,91 +2979,91 @@
         <v>130</v>
       </c>
       <c r="G21">
-        <v>2.95</v>
+        <v>1.95</v>
       </c>
       <c r="H21">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="I21">
-        <v>2.49</v>
+        <v>4</v>
       </c>
       <c r="J21">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K21">
-        <v>5.7</v>
+        <v>7.77</v>
       </c>
       <c r="L21">
+        <v>1.45</v>
+      </c>
+      <c r="M21">
+        <v>2.69</v>
+      </c>
+      <c r="N21">
+        <v>2.35</v>
+      </c>
+      <c r="O21">
+        <v>1.57</v>
+      </c>
+      <c r="P21">
+        <v>1.49</v>
+      </c>
+      <c r="Q21">
+        <v>2.47</v>
+      </c>
+      <c r="R21">
+        <v>2.06</v>
+      </c>
+      <c r="S21">
+        <v>1.69</v>
+      </c>
+      <c r="T21">
+        <v>1.25</v>
+      </c>
+      <c r="U21">
+        <v>1.28</v>
+      </c>
+      <c r="V21">
+        <v>1.85</v>
+      </c>
+      <c r="W21">
+        <v>1.36</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>1.75</v>
+      </c>
+      <c r="Z21">
+        <v>1.18</v>
+      </c>
+      <c r="AA21">
+        <v>2.93</v>
+      </c>
+      <c r="AB21">
+        <v>1.55</v>
+      </c>
+      <c r="AC21">
+        <v>8</v>
+      </c>
+      <c r="AD21">
+        <v>3.02</v>
+      </c>
+      <c r="AE21">
+        <v>1.27</v>
+      </c>
+      <c r="AF21">
         <v>1.5</v>
       </c>
-      <c r="M21">
-        <v>2.4</v>
-      </c>
-      <c r="N21">
-        <v>2.7</v>
-      </c>
-      <c r="O21">
-        <v>1.4</v>
-      </c>
-      <c r="P21">
-        <v>1.62</v>
-      </c>
-      <c r="Q21">
-        <v>2.2</v>
-      </c>
-      <c r="R21">
-        <v>2.23</v>
-      </c>
-      <c r="S21">
-        <v>1.63</v>
-      </c>
-      <c r="T21">
-        <v>1.47</v>
-      </c>
-      <c r="U21">
-        <v>1.38</v>
-      </c>
-      <c r="V21">
-        <v>1.39</v>
-      </c>
-      <c r="W21">
-        <v>1.18</v>
-      </c>
-      <c r="X21">
-        <v>0.73</v>
-      </c>
-      <c r="Y21">
-        <v>1.11</v>
-      </c>
-      <c r="Z21">
-        <v>1.22</v>
-      </c>
-      <c r="AA21">
-        <v>2.33</v>
-      </c>
-      <c r="AB21">
+      <c r="AG21">
         <v>2</v>
       </c>
-      <c r="AC21">
-        <v>7.5</v>
-      </c>
-      <c r="AD21">
-        <v>2.1</v>
-      </c>
-      <c r="AE21">
-        <v>1.3</v>
-      </c>
-      <c r="AF21">
-        <v>1.57</v>
-      </c>
-      <c r="AG21">
-        <v>1.98</v>
-      </c>
       <c r="AH21">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AI21">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -3077,7 +3077,7 @@
         <v>66</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
         <v>96</v>
@@ -3086,91 +3086,91 @@
         <v>131</v>
       </c>
       <c r="G22">
+        <v>2.95</v>
+      </c>
+      <c r="H22">
+        <v>2.95</v>
+      </c>
+      <c r="I22">
+        <v>2.49</v>
+      </c>
+      <c r="J22">
+        <v>1.1</v>
+      </c>
+      <c r="K22">
+        <v>5.7</v>
+      </c>
+      <c r="L22">
+        <v>1.5</v>
+      </c>
+      <c r="M22">
+        <v>2.4</v>
+      </c>
+      <c r="N22">
         <v>2.7</v>
       </c>
-      <c r="H22">
-        <v>3.1</v>
-      </c>
-      <c r="I22">
-        <v>2.45</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
+      <c r="O22">
+        <v>1.4</v>
+      </c>
+      <c r="P22">
+        <v>1.62</v>
+      </c>
+      <c r="Q22">
+        <v>2.2</v>
+      </c>
+      <c r="R22">
+        <v>2.23</v>
+      </c>
+      <c r="S22">
+        <v>1.63</v>
+      </c>
+      <c r="T22">
+        <v>1.47</v>
+      </c>
+      <c r="U22">
+        <v>1.38</v>
+      </c>
+      <c r="V22">
+        <v>1.39</v>
+      </c>
+      <c r="W22">
+        <v>1.18</v>
+      </c>
+      <c r="X22">
+        <v>0.73</v>
+      </c>
+      <c r="Y22">
+        <v>1.11</v>
+      </c>
+      <c r="Z22">
+        <v>1.22</v>
+      </c>
+      <c r="AA22">
+        <v>2.33</v>
+      </c>
+      <c r="AB22">
+        <v>2</v>
+      </c>
+      <c r="AC22">
+        <v>7.5</v>
+      </c>
+      <c r="AD22">
         <v>2.1</v>
       </c>
-      <c r="O22">
-        <v>1.68</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0.55</v>
-      </c>
-      <c r="X22">
-        <v>0.91</v>
-      </c>
-      <c r="Y22">
-        <v>1.06</v>
-      </c>
-      <c r="Z22">
-        <v>1.32</v>
-      </c>
-      <c r="AA22">
-        <v>2.38</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -3193,13 +3193,13 @@
         <v>132</v>
       </c>
       <c r="G23">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>6.35</v>
       </c>
       <c r="I23">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J23">
         <v>1.02</v>
@@ -3300,13 +3300,13 @@
         <v>133</v>
       </c>
       <c r="G24">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="H24">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="I24">
-        <v>2.88</v>
+        <v>3.02</v>
       </c>
       <c r="J24">
         <v>1.06</v>
@@ -3321,10 +3321,10 @@
         <v>2.94</v>
       </c>
       <c r="N24">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O24">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="P24">
         <v>1.45</v>
@@ -3407,13 +3407,13 @@
         <v>134</v>
       </c>
       <c r="G25">
-        <v>2.2</v>
+        <v>2.77</v>
       </c>
       <c r="H25">
         <v>3.1</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>2.68</v>
       </c>
       <c r="J25">
         <v>1.07</v>
@@ -3428,10 +3428,10 @@
         <v>3.25</v>
       </c>
       <c r="N25">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O25">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="P25">
         <v>1.4</v>
@@ -3496,7 +3496,7 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B26" s="2">
         <v>45124</v>
@@ -3505,7 +3505,7 @@
         <v>70</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
         <v>100</v>
@@ -3514,96 +3514,96 @@
         <v>135</v>
       </c>
       <c r="G26">
-        <v>2.3</v>
+        <v>2.67</v>
       </c>
       <c r="H26">
-        <v>2.88</v>
+        <v>3.06</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>2.81</v>
       </c>
       <c r="J26">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="K26">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="L26">
         <v>1.5</v>
       </c>
       <c r="M26">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="N26">
-        <v>2.45</v>
+        <v>2.59</v>
       </c>
       <c r="O26">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="P26">
         <v>1.53</v>
       </c>
       <c r="Q26">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R26">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="S26">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="T26">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="U26">
+        <v>1.4</v>
+      </c>
+      <c r="V26">
+        <v>1.44</v>
+      </c>
+      <c r="W26">
+        <v>1.63</v>
+      </c>
+      <c r="X26">
+        <v>1.88</v>
+      </c>
+      <c r="Y26">
+        <v>1.54</v>
+      </c>
+      <c r="Z26">
+        <v>1.09</v>
+      </c>
+      <c r="AA26">
+        <v>2.63</v>
+      </c>
+      <c r="AB26">
+        <v>1.57</v>
+      </c>
+      <c r="AC26">
+        <v>6</v>
+      </c>
+      <c r="AD26">
+        <v>2.7</v>
+      </c>
+      <c r="AE26">
+        <v>1.19</v>
+      </c>
+      <c r="AF26">
         <v>1.33</v>
       </c>
-      <c r="V26">
-        <v>1.54</v>
-      </c>
-      <c r="W26">
-        <v>1.83</v>
-      </c>
-      <c r="X26">
-        <v>1.33</v>
-      </c>
-      <c r="Y26">
-        <v>1.26</v>
-      </c>
-      <c r="Z26">
-        <v>1.24</v>
-      </c>
-      <c r="AA26">
-        <v>2.5</v>
-      </c>
-      <c r="AB26">
-        <v>1.62</v>
-      </c>
-      <c r="AC26">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD26">
-        <v>2.58</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>1.39</v>
-      </c>
       <c r="AG26">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="AH26">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2">
         <v>45124</v>
@@ -3612,7 +3612,7 @@
         <v>70</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
         <v>101</v>
@@ -3621,91 +3621,91 @@
         <v>136</v>
       </c>
       <c r="G27">
-        <v>2.63</v>
+        <v>2.54</v>
       </c>
       <c r="H27">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="I27">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J27">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="K27">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="L27">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M27">
-        <v>2.41</v>
+        <v>2.45</v>
       </c>
       <c r="N27">
-        <v>2.55</v>
+        <v>2.37</v>
       </c>
       <c r="O27">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P27">
         <v>1.53</v>
       </c>
       <c r="Q27">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="R27">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="S27">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="T27">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="U27">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="V27">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="W27">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="X27">
-        <v>1.88</v>
+        <v>1.33</v>
       </c>
       <c r="Y27">
-        <v>1.54</v>
+        <v>1.26</v>
       </c>
       <c r="Z27">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="AA27">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AB27">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AC27">
-        <v>6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD27">
-        <v>2.7</v>
+        <v>2.58</v>
       </c>
       <c r="AE27">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AF27">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AG27">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="AH27">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="AI27">
-        <v>2.43</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -3728,13 +3728,13 @@
         <v>137</v>
       </c>
       <c r="G28">
-        <v>4.6</v>
+        <v>4.25</v>
       </c>
       <c r="H28">
-        <v>3.5</v>
+        <v>3.38</v>
       </c>
       <c r="I28">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J28">
         <v>1.08</v>
@@ -3749,10 +3749,10 @@
         <v>2.75</v>
       </c>
       <c r="N28">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O28">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="P28">
         <v>1.53</v>
@@ -3761,10 +3761,10 @@
         <v>2.38</v>
       </c>
       <c r="R28">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S28">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T28">
         <v>1.91</v>
@@ -3791,13 +3791,13 @@
         <v>3.24</v>
       </c>
       <c r="AB28">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="AC28">
         <v>8</v>
       </c>
       <c r="AD28">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="AE28">
         <v>1.16</v>
@@ -3826,7 +3826,7 @@
         <v>71</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s">
         <v>103</v>
@@ -3835,91 +3835,91 @@
         <v>138</v>
       </c>
       <c r="G29">
+        <v>1.97</v>
+      </c>
+      <c r="H29">
+        <v>3.07</v>
+      </c>
+      <c r="I29">
+        <v>3.9</v>
+      </c>
+      <c r="J29">
+        <v>1.11</v>
+      </c>
+      <c r="K29">
+        <v>6.5</v>
+      </c>
+      <c r="L29">
+        <v>1.58</v>
+      </c>
+      <c r="M29">
+        <v>2.25</v>
+      </c>
+      <c r="N29">
+        <v>2.75</v>
+      </c>
+      <c r="O29">
+        <v>1.4</v>
+      </c>
+      <c r="P29">
         <v>1.65</v>
       </c>
-      <c r="H29">
-        <v>3.6</v>
-      </c>
-      <c r="I29">
-        <v>4.6</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>1.97</v>
-      </c>
-      <c r="O29">
-        <v>1.78</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
       <c r="Q29">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="W29">
-        <v>1.36</v>
+        <v>2</v>
       </c>
       <c r="X29">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="Y29">
-        <v>1.5</v>
+        <v>1.19</v>
       </c>
       <c r="Z29">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AA29">
-        <v>2.79</v>
+        <v>2.45</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -3942,13 +3942,13 @@
         <v>139</v>
       </c>
       <c r="G30">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="H30">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I30">
-        <v>3.9</v>
+        <v>4.01</v>
       </c>
       <c r="J30">
         <v>1.05</v>
@@ -3963,10 +3963,10 @@
         <v>2.8</v>
       </c>
       <c r="N30">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="O30">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P30">
         <v>1.44</v>
@@ -3975,19 +3975,19 @@
         <v>2.52</v>
       </c>
       <c r="R30">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="S30">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="T30">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="U30">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="V30">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="W30">
         <v>2.33</v>
@@ -4040,7 +4040,7 @@
         <v>71</v>
       </c>
       <c r="D31">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E31" t="s">
         <v>105</v>
@@ -4049,96 +4049,96 @@
         <v>140</v>
       </c>
       <c r="G31">
-        <v>1.97</v>
+        <v>1.64</v>
       </c>
       <c r="H31">
-        <v>3.07</v>
+        <v>3.74</v>
       </c>
       <c r="I31">
-        <v>3.9</v>
+        <v>5.05</v>
       </c>
       <c r="J31">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O31">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="P31">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>2</v>
+        <v>1.36</v>
       </c>
       <c r="X31">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="Y31">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="Z31">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AA31">
-        <v>2.45</v>
+        <v>2.79</v>
       </c>
       <c r="AB31">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD31">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="AE31">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AF31">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AG31">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AH31">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="AI31">
-        <v>4.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:35">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2">
         <v>45124</v>
@@ -4147,7 +4147,7 @@
         <v>72</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s">
         <v>106</v>
@@ -4156,96 +4156,96 @@
         <v>141</v>
       </c>
       <c r="G32">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H32">
-        <v>3.6</v>
+        <v>4.15</v>
       </c>
       <c r="I32">
-        <v>5.5</v>
+        <v>6.05</v>
       </c>
       <c r="J32">
         <v>1.01</v>
       </c>
       <c r="K32">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L32">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="M32">
+        <v>3.34</v>
+      </c>
+      <c r="N32">
+        <v>1.97</v>
+      </c>
+      <c r="O32">
+        <v>1.85</v>
+      </c>
+      <c r="P32">
+        <v>1.36</v>
+      </c>
+      <c r="Q32">
         <v>3</v>
       </c>
-      <c r="N32">
+      <c r="R32">
+        <v>1.83</v>
+      </c>
+      <c r="S32">
+        <v>1.93</v>
+      </c>
+      <c r="T32">
+        <v>1.18</v>
+      </c>
+      <c r="U32">
+        <v>1.22</v>
+      </c>
+      <c r="V32">
         <v>2</v>
       </c>
-      <c r="O32">
+      <c r="W32">
+        <v>1.38</v>
+      </c>
+      <c r="X32">
+        <v>1.38</v>
+      </c>
+      <c r="Y32">
+        <v>1.42</v>
+      </c>
+      <c r="Z32">
+        <v>1.6</v>
+      </c>
+      <c r="AA32">
+        <v>3.02</v>
+      </c>
+      <c r="AB32">
+        <v>1.64</v>
+      </c>
+      <c r="AC32">
+        <v>8</v>
+      </c>
+      <c r="AD32">
+        <v>2.77</v>
+      </c>
+      <c r="AE32">
+        <v>1.36</v>
+      </c>
+      <c r="AF32">
         <v>1.67</v>
       </c>
-      <c r="P32">
-        <v>1.41</v>
-      </c>
-      <c r="Q32">
-        <v>2.7</v>
-      </c>
-      <c r="R32">
-        <v>1.86</v>
-      </c>
-      <c r="S32">
-        <v>1.74</v>
-      </c>
-      <c r="T32">
-        <v>1.16</v>
-      </c>
-      <c r="U32">
-        <v>1.21</v>
-      </c>
-      <c r="V32">
-        <v>1.9</v>
-      </c>
-      <c r="W32">
-        <v>2.71</v>
-      </c>
-      <c r="X32">
-        <v>0.86</v>
-      </c>
-      <c r="Y32">
-        <v>1.4</v>
-      </c>
-      <c r="Z32">
-        <v>1.1</v>
-      </c>
-      <c r="AA32">
-        <v>2.5</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
       <c r="AG32">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:35">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2">
         <v>45124</v>
@@ -4254,7 +4254,7 @@
         <v>72</v>
       </c>
       <c r="D33">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E33" t="s">
         <v>107</v>
@@ -4263,88 +4263,88 @@
         <v>142</v>
       </c>
       <c r="G33">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="H33">
-        <v>3.6</v>
+        <v>3.54</v>
       </c>
       <c r="I33">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J33">
         <v>1.01</v>
       </c>
       <c r="K33">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="L33">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M33">
-        <v>3.34</v>
+        <v>3</v>
       </c>
       <c r="N33">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="O33">
-        <v>1.87</v>
+        <v>1.67</v>
       </c>
       <c r="P33">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="Q33">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="R33">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="S33">
-        <v>1.93</v>
+        <v>1.76</v>
       </c>
       <c r="T33">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="U33">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W33">
-        <v>1.38</v>
+        <v>2.71</v>
       </c>
       <c r="X33">
-        <v>1.38</v>
+        <v>0.86</v>
       </c>
       <c r="Y33">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Z33">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="AA33">
-        <v>3.02</v>
+        <v>2.5</v>
       </c>
       <c r="AB33">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD33">
-        <v>2.77</v>
+        <v>0</v>
       </c>
       <c r="AE33">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AG33">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AH33">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="AI33">
         <v>0</v>
@@ -4370,13 +4370,13 @@
         <v>143</v>
       </c>
       <c r="G34">
-        <v>2.63</v>
+        <v>3.18</v>
       </c>
       <c r="H34">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="I34">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="J34">
         <v>1.06</v>
@@ -4385,16 +4385,16 @@
         <v>6.5</v>
       </c>
       <c r="L34">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="M34">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="N34">
-        <v>2.35</v>
+        <v>2.41</v>
       </c>
       <c r="O34">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P34">
         <v>1.51</v>
@@ -4454,7 +4454,7 @@
         <v>2.9</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="35" spans="1:35">
@@ -4477,13 +4477,13 @@
         <v>144</v>
       </c>
       <c r="G35">
-        <v>1.63</v>
+        <v>1.77</v>
       </c>
       <c r="H35">
-        <v>3.62</v>
+        <v>3.46</v>
       </c>
       <c r="I35">
-        <v>5.27</v>
+        <v>4.3</v>
       </c>
       <c r="J35">
         <v>1.06</v>
@@ -4498,10 +4498,10 @@
         <v>2.9</v>
       </c>
       <c r="N35">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="O35">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="P35">
         <v>1.45</v>
@@ -4552,16 +4552,16 @@
         <v>0</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AH35">
         <v>1.98</v>
       </c>
       <c r="AI35">
-        <v>0</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="36" spans="1:35">
@@ -4584,13 +4584,13 @@
         <v>145</v>
       </c>
       <c r="G36">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H36">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I36">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="J36">
         <v>1.06</v>
@@ -4605,10 +4605,10 @@
         <v>3.4</v>
       </c>
       <c r="N36">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O36">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="P36">
         <v>1.38</v>
